--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H2">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>17.8771544350373</v>
+        <v>0.2601236666666666</v>
       </c>
       <c r="N2">
-        <v>17.8771544350373</v>
+        <v>0.7803709999999999</v>
       </c>
       <c r="O2">
-        <v>0.9055205746555525</v>
+        <v>0.01260992301763117</v>
       </c>
       <c r="P2">
-        <v>0.9055205746555525</v>
+        <v>0.01260992301763117</v>
       </c>
       <c r="Q2">
-        <v>199.856787380638</v>
+        <v>2.975065763922444</v>
       </c>
       <c r="R2">
-        <v>199.856787380638</v>
+        <v>26.775591875302</v>
       </c>
       <c r="S2">
-        <v>0.5323296223036058</v>
+        <v>0.00730912760991871</v>
       </c>
       <c r="T2">
-        <v>0.5323296223036058</v>
+        <v>0.007309127609918709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H3">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.86525113298364</v>
+        <v>18.12300666666667</v>
       </c>
       <c r="N3">
-        <v>1.86525113298364</v>
+        <v>54.36902</v>
       </c>
       <c r="O3">
-        <v>0.09447942534444755</v>
+        <v>0.8785425864672691</v>
       </c>
       <c r="P3">
-        <v>0.09447942534444755</v>
+        <v>0.878542586467269</v>
       </c>
       <c r="Q3">
-        <v>20.85248524595115</v>
+        <v>207.2750140894711</v>
       </c>
       <c r="R3">
-        <v>20.85248524595115</v>
+        <v>1865.47512680524</v>
       </c>
       <c r="S3">
-        <v>0.05554174937240129</v>
+        <v>0.509232282089189</v>
       </c>
       <c r="T3">
-        <v>0.05554174937240129</v>
+        <v>0.5092322820891889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.7376091292139</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H4">
-        <v>5.7376091292139</v>
+        <v>34.311362</v>
       </c>
       <c r="I4">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J4">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>17.8771544350373</v>
+        <v>0.03149966666666667</v>
       </c>
       <c r="N4">
-        <v>17.8771544350373</v>
+        <v>0.094499</v>
       </c>
       <c r="O4">
-        <v>0.9055205746555525</v>
+        <v>0.001526998203730185</v>
       </c>
       <c r="P4">
-        <v>0.9055205746555525</v>
+        <v>0.001526998203730184</v>
       </c>
       <c r="Q4">
-        <v>102.5721244908368</v>
+        <v>0.3602654886264445</v>
       </c>
       <c r="R4">
-        <v>102.5721244908368</v>
+        <v>3.242389397638</v>
       </c>
       <c r="S4">
-        <v>0.2732065345626355</v>
+        <v>0.0008850985621066239</v>
       </c>
       <c r="T4">
-        <v>0.2732065345626355</v>
+        <v>0.0008850985621066237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.7376091292139</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H5">
-        <v>5.7376091292139</v>
+        <v>34.311362</v>
       </c>
       <c r="I5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J5">
-        <v>0.3017121225175469</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.86525113298364</v>
+        <v>2.213859666666667</v>
       </c>
       <c r="N5">
-        <v>1.86525113298364</v>
+        <v>6.641579</v>
       </c>
       <c r="O5">
-        <v>0.09447942534444755</v>
+        <v>0.1073204923113696</v>
       </c>
       <c r="P5">
-        <v>0.09447942534444755</v>
+        <v>0.1073204923113696</v>
       </c>
       <c r="Q5">
-        <v>10.7020819288835</v>
+        <v>25.32018014673311</v>
       </c>
       <c r="R5">
-        <v>10.7020819288835</v>
+        <v>227.881621320598</v>
       </c>
       <c r="S5">
-        <v>0.02850558795491138</v>
+        <v>0.06220649978325219</v>
       </c>
       <c r="T5">
-        <v>0.02850558795491138</v>
+        <v>0.06220649978325218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.0997722810893</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H6">
-        <v>2.0997722810893</v>
+        <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J6">
-        <v>0.1104165058064459</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>17.8771544350373</v>
+        <v>0.2601236666666666</v>
       </c>
       <c r="N6">
-        <v>17.8771544350373</v>
+        <v>0.7803709999999999</v>
       </c>
       <c r="O6">
-        <v>0.9055205746555525</v>
+        <v>0.01260992301763117</v>
       </c>
       <c r="P6">
-        <v>0.9055205746555525</v>
+        <v>0.01260992301763117</v>
       </c>
       <c r="Q6">
-        <v>37.53795334744397</v>
+        <v>1.496831782797222</v>
       </c>
       <c r="R6">
-        <v>37.53795334744397</v>
+        <v>13.471486045175</v>
       </c>
       <c r="S6">
-        <v>0.09998441778931107</v>
+        <v>0.00367740930090318</v>
       </c>
       <c r="T6">
-        <v>0.09998441778931107</v>
+        <v>0.00367740930090318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.754308333333334</v>
+      </c>
+      <c r="H7">
+        <v>17.262925</v>
+      </c>
+      <c r="I7">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="J7">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>18.12300666666667</v>
+      </c>
+      <c r="N7">
+        <v>54.36902</v>
+      </c>
+      <c r="O7">
+        <v>0.8785425864672691</v>
+      </c>
+      <c r="P7">
+        <v>0.878542586467269</v>
+      </c>
+      <c r="Q7">
+        <v>104.2853682870556</v>
+      </c>
+      <c r="R7">
+        <v>938.5683145835002</v>
+      </c>
+      <c r="S7">
+        <v>0.256207803504988</v>
+      </c>
+      <c r="T7">
+        <v>0.256207803504988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.754308333333334</v>
+      </c>
+      <c r="H8">
+        <v>17.262925</v>
+      </c>
+      <c r="I8">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="J8">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03149966666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.094499</v>
+      </c>
+      <c r="O8">
+        <v>0.001526998203730185</v>
+      </c>
+      <c r="P8">
+        <v>0.001526998203730184</v>
+      </c>
+      <c r="Q8">
+        <v>0.1812587943972223</v>
+      </c>
+      <c r="R8">
+        <v>1.631329149575</v>
+      </c>
+      <c r="S8">
+        <v>0.0004453157556163026</v>
+      </c>
+      <c r="T8">
+        <v>0.0004453157556163024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.754308333333334</v>
+      </c>
+      <c r="H9">
+        <v>17.262925</v>
+      </c>
+      <c r="I9">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="J9">
+        <v>0.2916282118266253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.213859666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.641579</v>
+      </c>
+      <c r="O9">
+        <v>0.1073204923113696</v>
+      </c>
+      <c r="P9">
+        <v>0.1073204923113696</v>
+      </c>
+      <c r="Q9">
+        <v>12.73923112873056</v>
+      </c>
+      <c r="R9">
+        <v>114.653080158575</v>
+      </c>
+      <c r="S9">
+        <v>0.0312976832651178</v>
+      </c>
+      <c r="T9">
+        <v>0.0312976832651178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J10">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2601236666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.7803709999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.01260992301763117</v>
+      </c>
+      <c r="P10">
+        <v>0.01260992301763117</v>
+      </c>
+      <c r="Q10">
+        <v>0.06945579365244443</v>
+      </c>
+      <c r="R10">
+        <v>0.6251021428720001</v>
+      </c>
+      <c r="S10">
+        <v>0.0001706386679616042</v>
+      </c>
+      <c r="T10">
+        <v>0.0001706386679616042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="H7">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="I7">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="J7">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.86525113298364</v>
-      </c>
-      <c r="N7">
-        <v>1.86525113298364</v>
-      </c>
-      <c r="O7">
-        <v>0.09447942534444755</v>
-      </c>
-      <c r="P7">
-        <v>0.09447942534444755</v>
-      </c>
-      <c r="Q7">
-        <v>3.916602626309459</v>
-      </c>
-      <c r="R7">
-        <v>3.916602626309459</v>
-      </c>
-      <c r="S7">
-        <v>0.01043208801713487</v>
-      </c>
-      <c r="T7">
-        <v>0.01043208801713487</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J11">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.12300666666667</v>
+      </c>
+      <c r="N11">
+        <v>54.36902</v>
+      </c>
+      <c r="O11">
+        <v>0.8785425864672691</v>
+      </c>
+      <c r="P11">
+        <v>0.878542586467269</v>
+      </c>
+      <c r="Q11">
+        <v>4.839036092071111</v>
+      </c>
+      <c r="R11">
+        <v>43.55132482864001</v>
+      </c>
+      <c r="S11">
+        <v>0.01188852116644239</v>
+      </c>
+      <c r="T11">
+        <v>0.01188852116644239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J12">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03149966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.094499</v>
+      </c>
+      <c r="O12">
+        <v>0.001526998203730185</v>
+      </c>
+      <c r="P12">
+        <v>0.001526998203730184</v>
+      </c>
+      <c r="Q12">
+        <v>0.008410746996444445</v>
+      </c>
+      <c r="R12">
+        <v>0.07569672296800001</v>
+      </c>
+      <c r="S12">
+        <v>2.066348375798644E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.066348375798644E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J13">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.213859666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.641579</v>
+      </c>
+      <c r="O13">
+        <v>0.1073204923113696</v>
+      </c>
+      <c r="P13">
+        <v>0.1073204923113696</v>
+      </c>
+      <c r="Q13">
+        <v>0.5911241455031111</v>
+      </c>
+      <c r="R13">
+        <v>5.320117309528</v>
+      </c>
+      <c r="S13">
+        <v>0.001452271027141915</v>
+      </c>
+      <c r="T13">
+        <v>0.001452271027141915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.273219</v>
+      </c>
+      <c r="H14">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J14">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2601236666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.7803709999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.01260992301763117</v>
+      </c>
+      <c r="P14">
+        <v>0.01260992301763117</v>
+      </c>
+      <c r="Q14">
+        <v>0.5913180614163331</v>
+      </c>
+      <c r="R14">
+        <v>5.321862552746999</v>
+      </c>
+      <c r="S14">
+        <v>0.001452747438847673</v>
+      </c>
+      <c r="T14">
+        <v>0.001452747438847673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.273219</v>
+      </c>
+      <c r="H15">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J15">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.12300666666667</v>
+      </c>
+      <c r="N15">
+        <v>54.36902</v>
+      </c>
+      <c r="O15">
+        <v>0.8785425864672691</v>
+      </c>
+      <c r="P15">
+        <v>0.878542586467269</v>
+      </c>
+      <c r="Q15">
+        <v>41.19756309179332</v>
+      </c>
+      <c r="R15">
+        <v>370.77806782614</v>
+      </c>
+      <c r="S15">
+        <v>0.1012139797066497</v>
+      </c>
+      <c r="T15">
+        <v>0.1012139797066497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.273219</v>
+      </c>
+      <c r="H16">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J16">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03149966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.094499</v>
+      </c>
+      <c r="O16">
+        <v>0.001526998203730185</v>
+      </c>
+      <c r="P16">
+        <v>0.001526998203730184</v>
+      </c>
+      <c r="Q16">
+        <v>0.07160564076033332</v>
+      </c>
+      <c r="R16">
+        <v>0.644450766843</v>
+      </c>
+      <c r="S16">
+        <v>0.0001759204022492716</v>
+      </c>
+      <c r="T16">
+        <v>0.0001759204022492715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.273219</v>
+      </c>
+      <c r="H17">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J17">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.213859666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.641579</v>
+      </c>
+      <c r="O17">
+        <v>0.1073204923113696</v>
+      </c>
+      <c r="P17">
+        <v>0.1073204923113696</v>
+      </c>
+      <c r="Q17">
+        <v>5.032587857600332</v>
+      </c>
+      <c r="R17">
+        <v>45.293290718403</v>
+      </c>
+      <c r="S17">
+        <v>0.01236403823585768</v>
+      </c>
+      <c r="T17">
+        <v>0.01236403823585768</v>
       </c>
     </row>
   </sheetData>
